--- a/data/feed_params/raw/fao_aq_fact_sheet_info.xlsx
+++ b/data/feed_params/raw/fao_aq_fact_sheet_info.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/aquacast/data/feed_params/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232CBC6C-2A3D-4744-913B-F7C5A2E133DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0041F6F3-72DB-4043-9285-7AFC1DE24775}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9500" yWindow="460" windowWidth="35900" windowHeight="26060" xr2:uid="{9BCAA5BC-FB06-2849-AA37-7D17C803C3A7}"/>
+    <workbookView xWindow="2280" yWindow="880" windowWidth="39700" windowHeight="26240" xr2:uid="{9BCAA5BC-FB06-2849-AA37-7D17C803C3A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$74</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="248">
   <si>
     <t>American bull frog (Rana catesbeiana)</t>
   </si>
@@ -646,13 +646,196 @@
   </si>
   <si>
     <t>https://www.sealifebase.ca/summary/Crassostrea-virginica.html</t>
+  </si>
+  <si>
+    <t>harvest_density</t>
+  </si>
+  <si>
+    <t>5 kg/m3 but usually lower</t>
+  </si>
+  <si>
+    <t>2.5 million seed oysters / hectare</t>
+  </si>
+  <si>
+    <t>cost_notes</t>
+  </si>
+  <si>
+    <t>12 m fingerlings = US$3-4</t>
+  </si>
+  <si>
+    <t>US$75,000/hectare (seed, equipment, labor $25,000/hectare each)</t>
+  </si>
+  <si>
+    <t>US$4-6/kg in Norway in 2009</t>
+  </si>
+  <si>
+    <t>20 kg/m3 max is normal</t>
+  </si>
+  <si>
+    <t>US$1/smolt for smolt producer and $2.50/kg for ongrower</t>
+  </si>
+  <si>
+    <t>15 kg/m3 in recirculation, 15-40 kg/m3 in cage culture but 60 kg/m3 possible</t>
+  </si>
+  <si>
+    <t>US$0.20 per kilogram of seed</t>
+  </si>
+  <si>
+    <t>150-750/hectare</t>
+  </si>
+  <si>
+    <t>18-20 mt/ha/yr in longline culture</t>
+  </si>
+  <si>
+    <t>20-20% of 3-5 tonnes/ha/yr</t>
+  </si>
+  <si>
+    <t>10-15 kg/m3</t>
+  </si>
+  <si>
+    <t>8–12 kg/m³</t>
+  </si>
+  <si>
+    <r>
+      <t>25 kg/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF4E4E4E"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>4 000-6 000/ha</t>
+  </si>
+  <si>
+    <t>4 000-6 000 fish/ha</t>
+  </si>
+  <si>
+    <t>50-100 kg/ha on bottom</t>
+  </si>
+  <si>
+    <t>70-100 kg/m³</t>
+  </si>
+  <si>
+    <t>4.3–5.6/tonnes/ha</t>
+  </si>
+  <si>
+    <t>10-15 kg/m³</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>marine</t>
+  </si>
+  <si>
+    <r>
+      <t>800 clams/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF4E4E4E"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>150-200/m onto a thicker rope</t>
+  </si>
+  <si>
+    <t>not clear</t>
+  </si>
+  <si>
+    <t>freshwater</t>
+  </si>
+  <si>
+    <r>
+      <t>stocked at 3 fish/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF4E4E4E"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4E4E4E"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> in ponds</t>
+    </r>
+  </si>
+  <si>
+    <t>4-15 kg/ha in valliculture</t>
+  </si>
+  <si>
+    <t>5 fish / m2</t>
+  </si>
+  <si>
+    <t>60-70% of 30-50 kg/m³</t>
+  </si>
+  <si>
+    <t>50kg/m3</t>
+  </si>
+  <si>
+    <t>5-30 fish/m3</t>
+  </si>
+  <si>
+    <t>not interested b/c freshwater</t>
+  </si>
+  <si>
+    <r>
+      <t>fingerlings are stocked at 15-20/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF4E4E4E"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>16.25 kg/m3</t>
+  </si>
+  <si>
+    <t>30-40 kg/m²</t>
+  </si>
+  <si>
+    <t>although a marine species, aquaculture is freshwater</t>
+  </si>
+  <si>
+    <t>for aquarium industry</t>
+  </si>
+  <si>
+    <t>not grown in marine cages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -683,6 +866,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4E4E4E"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
+      <color rgb="FF4E4E4E"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color rgb="FF4E4E4E"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -705,11 +908,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1025,1252 +1229,1555 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF694A5-C751-5C4A-A9D9-C287043F4460}">
-  <dimension ref="A1:G73"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C41" sqref="C41:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="56.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" customWidth="1"/>
+    <col min="8" max="8" width="56.1640625" customWidth="1"/>
+    <col min="9" max="9" width="66" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="57.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>115</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>116</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>203</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>76</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>117</v>
       </c>
       <c r="B4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>75</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>235</v>
+      </c>
+      <c r="J4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>117</v>
       </c>
       <c r="B5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>73</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f>AVERAGE(45,90)</f>
         <v>67.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>117</v>
       </c>
       <c r="B6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>77</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>233</v>
+      </c>
+      <c r="J6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>117</v>
       </c>
       <c r="B7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>71</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>213</v>
+      </c>
+      <c r="J7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>117</v>
       </c>
       <c r="B8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>79</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f>AVERAGE(0.35,2)</f>
         <v>1.175</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>117</v>
       </c>
       <c r="B9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>81</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f>AVERAGE(0.75,1.5)</f>
         <v>1.125</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>217</v>
+      </c>
+      <c r="J9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>116</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>83</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>119</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>117</v>
       </c>
       <c r="B12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>85</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>119</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>117</v>
       </c>
       <c r="B15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>88</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>117</v>
       </c>
       <c r="B16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>90</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B17" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I17" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>93</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <f>350/1000</f>
         <v>0.35</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B19" t="s">
+        <v>234</v>
+      </c>
+      <c r="C19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>95</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <f>AVERAGE(150,400)/1000</f>
         <v>0.27500000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>118</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C21" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>191</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <f>175/1000</f>
         <v>0.17499999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I21" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>116</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>202</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <f>70/1000</f>
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C23" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>99</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <f>400/1000</f>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>101</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <f>AVERAGE(0.75,1)</f>
         <v>0.875</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>117</v>
       </c>
       <c r="B25" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>103</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>119</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>119</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>117</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C28" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>105</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <f>375/1000</f>
         <v>0.375</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>118</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>117</v>
       </c>
       <c r="B30" t="s">
+        <v>234</v>
+      </c>
+      <c r="C30" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>107</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>117</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C31" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>110</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>116</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>113</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>119</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>119</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>117</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>121</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>116</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>123</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B37" t="s">
+        <v>234</v>
+      </c>
+      <c r="C37" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>125</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <f>AVERAGE(150/1000,2)</f>
         <v>1.075</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I37" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>118</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="D38" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>189</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B40" t="s">
+        <v>234</v>
+      </c>
+      <c r="C40" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>127</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I40" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C41" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>129</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I41" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>116</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>131</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C43" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>133</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <f>AVERAGE(250,500)/1000</f>
         <v>0.375</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I43" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B44" t="s">
+        <v>234</v>
+      </c>
+      <c r="C44" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>135</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <f>650/1000</f>
         <v>0.65</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I44" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B45" t="s">
+        <v>234</v>
+      </c>
+      <c r="C45" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>137</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <f>AVERAGE(125,500)/1000</f>
         <v>0.3125</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I45" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>116</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>139</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <f>AVERAGE(90,120)</f>
         <v>105</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I46" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B47" t="s">
+        <v>234</v>
+      </c>
+      <c r="C47" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>192</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <f>500/1000</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I47" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>118</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B49" t="s">
+        <v>234</v>
+      </c>
+      <c r="C49" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>142</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <f>250/1000</f>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I49" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>116</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>193</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C51" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>105</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <f>375/1000</f>
         <v>0.375</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I51" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>116</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>145</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <f>AVERAGE(70, 100)/1000</f>
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B53" t="s">
+        <v>234</v>
+      </c>
+      <c r="C53" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>85</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I53" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>117</v>
       </c>
       <c r="B54" t="s">
+        <v>230</v>
+      </c>
+      <c r="C54" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>149</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <f>453/1000</f>
         <v>0.45300000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I54" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>116</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>51</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E55" t="s">
         <v>151</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <f>AVERAGE(25,40)</f>
         <v>32.5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C56" t="s">
         <v>52</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>200</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I56" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>119</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>53</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B58" t="s">
+        <v>230</v>
+      </c>
+      <c r="C58" t="s">
         <v>54</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>155</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I58" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>119</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>55</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B60" t="s">
+        <v>234</v>
+      </c>
+      <c r="C60" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>158</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I60" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>119</v>
       </c>
       <c r="B61" t="s">
+        <v>230</v>
+      </c>
+      <c r="C61" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B62" t="s">
+        <v>230</v>
+      </c>
+      <c r="C62" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>121</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I62" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B63" t="s">
+        <v>234</v>
+      </c>
+      <c r="C63" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>85</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I63" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B64" t="s">
+        <v>234</v>
+      </c>
+      <c r="C64" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>81</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <f>AVERAGE(0.75,1.5)</f>
         <v>1.125</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I64" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>120</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>61</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>117</v>
       </c>
       <c r="B66" t="s">
+        <v>234</v>
+      </c>
+      <c r="C66" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>165</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I66" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>117</v>
       </c>
       <c r="B67" t="s">
+        <v>234</v>
+      </c>
+      <c r="C67" t="s">
         <v>63</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>167</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I67" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>116</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>64</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>201</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <f>AVERAGE(66,77)</f>
         <v>71.5</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>117</v>
       </c>
       <c r="B69" t="s">
+        <v>230</v>
+      </c>
+      <c r="C69" t="s">
         <v>65</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I69" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>117</v>
       </c>
       <c r="B70" t="s">
+        <v>230</v>
+      </c>
+      <c r="C70" t="s">
         <v>171</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E70" t="s">
         <v>173</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="I70" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>118</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>66</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>119</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>116</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>177</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>100</v>
       </c>
     </row>
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <autoFilter ref="A1:G74" xr:uid="{2FC666A8-B46D-B742-B3EA-B10BB2D197D3}">
-    <sortState ref="A2:G74">
-      <sortCondition ref="B1:B74"/>
+  <autoFilter ref="A1:H74" xr:uid="{2FC666A8-B46D-B742-B3EA-B10BB2D197D3}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Finfish"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A2:H74">
+      <sortCondition ref="C1:C74"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{72AE369D-E198-1943-AD18-2DE5C9F5DC85}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{875F0A20-252A-1A40-BC83-C5CF710CA537}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{B2666AFE-2727-0944-8F79-31F9F1B8BC34}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{49F9D581-07D0-9046-9B69-65C683927D5B}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{3AEF31A7-57C6-D94B-8B07-7E2DB39BC5F9}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{9381A599-64AE-8349-A976-466280E97D5D}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{805E1A00-8887-C148-A142-99A0640C293B}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{4DAD74E6-FAAE-5644-BC20-EB4B8BF34276}"/>
-    <hyperlink ref="C12" r:id="rId9" xr:uid="{C863EFCC-AC8F-7C41-A3E4-B49D5676D348}"/>
-    <hyperlink ref="C13" r:id="rId10" xr:uid="{883DA026-6975-8F4B-BDE8-57DC185D8573}"/>
-    <hyperlink ref="C15" r:id="rId11" xr:uid="{0CC94E92-F0EA-BF42-B7D5-A84AB0D89C3F}"/>
-    <hyperlink ref="C16" r:id="rId12" xr:uid="{4311FE02-C34E-2F40-9DF9-E272AD4B7F7F}"/>
-    <hyperlink ref="C17" r:id="rId13" xr:uid="{C1579CFB-8BB5-E645-A2AC-4237FB6BF47A}"/>
-    <hyperlink ref="C18" r:id="rId14" xr:uid="{CAB29C13-42FF-874D-9350-4D90D6E5795D}"/>
-    <hyperlink ref="C19" r:id="rId15" xr:uid="{AAD94CEC-DEB4-9B42-95B3-DE9669D619AE}"/>
-    <hyperlink ref="C21" r:id="rId16" xr:uid="{2041D576-5DA8-7848-A411-5F5580A5C3D8}"/>
-    <hyperlink ref="C22" r:id="rId17" xr:uid="{9123176F-8FC8-7B46-9625-296B13E5255E}"/>
-    <hyperlink ref="C23" r:id="rId18" xr:uid="{A2CD7702-3E0F-FB41-9C85-981AA91D2E26}"/>
-    <hyperlink ref="C24" r:id="rId19" xr:uid="{777C3EE8-1B3C-DD45-8720-B03AFAD95081}"/>
-    <hyperlink ref="C25" r:id="rId20" xr:uid="{D620C784-C558-084F-B75D-AD63F4B32C7A}"/>
-    <hyperlink ref="C28" r:id="rId21" xr:uid="{BF116976-60A9-9341-9A1E-C9C1EE729C67}"/>
-    <hyperlink ref="C30" r:id="rId22" xr:uid="{87FEB846-7095-C245-BA7C-AB3F3ECBC698}"/>
-    <hyperlink ref="C31" r:id="rId23" xr:uid="{601454A1-F662-A94B-9B87-944C41563CCC}"/>
-    <hyperlink ref="C32" r:id="rId24" xr:uid="{58700FDA-FA30-DB42-B1B4-6381AB5A9381}"/>
-    <hyperlink ref="C35" r:id="rId25" xr:uid="{7C7D21C3-029A-5542-8B19-9F9090D2721E}"/>
-    <hyperlink ref="C36" r:id="rId26" xr:uid="{0ECF212A-AAF7-9742-8791-E7FB69EDBC73}"/>
-    <hyperlink ref="C37" r:id="rId27" xr:uid="{A8D9D31C-AEBC-0D40-90F3-63F756B224A4}"/>
-    <hyperlink ref="C40" r:id="rId28" xr:uid="{E541C83D-752A-A74C-933D-413878A993B0}"/>
-    <hyperlink ref="C41" r:id="rId29" xr:uid="{84CC0AE2-9E4C-4A48-AE39-074E8B8012EA}"/>
-    <hyperlink ref="C42" r:id="rId30" xr:uid="{3C996A38-E410-0248-A00B-B8436166D5FD}"/>
-    <hyperlink ref="C43" r:id="rId31" location="tcNA00A0" display="http://www.fao.org/fishery/culturedspecies/Chanos_chanos/en - tcNA00A0" xr:uid="{3C4EF2E2-E0C2-B448-9004-AA1AB7B9B91A}"/>
-    <hyperlink ref="C44" r:id="rId32" xr:uid="{4960C6F3-FB1C-4146-90CD-2EA7905C0F21}"/>
-    <hyperlink ref="C45" r:id="rId33" xr:uid="{BBC213C4-E4B7-8E40-83D9-2B3FB8C60082}"/>
-    <hyperlink ref="C46" r:id="rId34" xr:uid="{60B2B5D5-8CE7-7248-99C8-D4A99824C997}"/>
-    <hyperlink ref="C47" r:id="rId35" location="tcN8008C" display="http://www.fao.org/fishery/culturedspecies/Oreochromis_niloticus/en - tcN8008C" xr:uid="{96920DA7-F6F9-E248-B150-C521925D595E}"/>
-    <hyperlink ref="C49" r:id="rId36" xr:uid="{488D18A3-C5F3-3649-AF3D-A5C30048A371}"/>
-    <hyperlink ref="C50" r:id="rId37" xr:uid="{EF1FA74F-888B-454C-A9D1-9036807F436E}"/>
-    <hyperlink ref="C51" r:id="rId38" xr:uid="{D033EE41-288C-6540-826C-2FF75D420779}"/>
-    <hyperlink ref="C52" r:id="rId39" xr:uid="{367362EC-E966-D84B-B10D-D549EB21DA18}"/>
-    <hyperlink ref="C53" r:id="rId40" xr:uid="{7337563C-FFC3-CF43-BB0F-080E97531D5E}"/>
-    <hyperlink ref="C54" r:id="rId41" xr:uid="{DFA12BB0-0D6C-2141-A307-39BB4DCE26C7}"/>
-    <hyperlink ref="C55" r:id="rId42" xr:uid="{206DEA2F-BD75-5343-90C2-793A73EC96D1}"/>
-    <hyperlink ref="C56" r:id="rId43" xr:uid="{2614649B-BA3F-704F-9289-8466221F2EA5}"/>
-    <hyperlink ref="C57" r:id="rId44" xr:uid="{531C407D-EDD2-DF4D-8948-663AA0C7F8D2}"/>
-    <hyperlink ref="C58" r:id="rId45" xr:uid="{1838FAA1-B3B1-8C43-A82D-FFC8956C4B84}"/>
-    <hyperlink ref="C59" r:id="rId46" xr:uid="{A2BDC684-D318-C849-B601-28CA980DE2C3}"/>
-    <hyperlink ref="C60" r:id="rId47" xr:uid="{29B93442-9CA6-E246-8820-2219875B0D72}"/>
-    <hyperlink ref="C61" r:id="rId48" xr:uid="{F6F2A4E7-E263-5A48-A672-4A282BC34E51}"/>
-    <hyperlink ref="C62" r:id="rId49" xr:uid="{271B665D-87BF-1D45-A341-E8FD3722E7D7}"/>
-    <hyperlink ref="C63" r:id="rId50" xr:uid="{7F9BABF1-B84D-2D4F-AEAA-EA33507CD7A1}"/>
-    <hyperlink ref="C64" r:id="rId51" xr:uid="{508B37AF-A381-A546-8BEF-3B4BD5A26C91}"/>
-    <hyperlink ref="C65" r:id="rId52" xr:uid="{38CEA48D-1005-FC4B-B485-E981152AF8A0}"/>
-    <hyperlink ref="C66" r:id="rId53" xr:uid="{932795F5-3BFF-8C40-9377-90C7AE494920}"/>
-    <hyperlink ref="C67" r:id="rId54" xr:uid="{E3D29BEB-9BC9-3A41-9148-509826AD6D28}"/>
-    <hyperlink ref="C68" r:id="rId55" xr:uid="{628DE432-6551-374E-867F-8DA36027D01A}"/>
-    <hyperlink ref="C69" r:id="rId56" xr:uid="{3A1C5098-10A3-244E-AE75-E45DA53FACD4}"/>
-    <hyperlink ref="C70" r:id="rId57" xr:uid="{99BD9C78-1E3D-3E45-A575-34A3DC5F824D}"/>
-    <hyperlink ref="C71" r:id="rId58" xr:uid="{8E59F3AB-C7CD-9143-8361-2F086D6CF87C}"/>
-    <hyperlink ref="C72" r:id="rId59" xr:uid="{7001DEB9-22DD-2447-9538-3D1516129106}"/>
-    <hyperlink ref="C73" r:id="rId60" xr:uid="{F9CB234F-E461-F846-B586-6F30E2FA61DE}"/>
-    <hyperlink ref="C11" r:id="rId61" xr:uid="{13AE02E0-7292-8642-BD3D-BE4D5296B122}"/>
-    <hyperlink ref="C14" r:id="rId62" xr:uid="{A2733D52-CFB9-334A-AEAA-1DD9F12A1D30}"/>
-    <hyperlink ref="C27" r:id="rId63" xr:uid="{4C608416-7D09-EA46-AE0A-4A55BBB5D786}"/>
-    <hyperlink ref="C26" r:id="rId64" xr:uid="{9123A1D3-54FA-8848-A031-BB37AF7DE9AC}"/>
-    <hyperlink ref="C20" r:id="rId65" xr:uid="{D8EEEBCA-6AD0-C14B-B3F2-309794617C9C}"/>
-    <hyperlink ref="C29" r:id="rId66" xr:uid="{BED6A0DC-B191-294B-BCC8-DDEB91D34922}"/>
-    <hyperlink ref="C33" r:id="rId67" xr:uid="{CCFB9E11-D25E-B645-9BC9-987815E1555D}"/>
-    <hyperlink ref="C34" r:id="rId68" xr:uid="{31DD904A-50EB-7847-ADC9-763F25F7FF71}"/>
-    <hyperlink ref="C38" r:id="rId69" xr:uid="{C306DAC6-7459-FA4C-A682-07111A550070}"/>
-    <hyperlink ref="C39" r:id="rId70" xr:uid="{420DA5CC-1CEB-2349-9EE7-E49824EEE7D9}"/>
-    <hyperlink ref="C48" r:id="rId71" xr:uid="{A1291532-B3EF-C549-B7E1-D06188C68D36}"/>
-    <hyperlink ref="C2" r:id="rId72" xr:uid="{804CA2A9-6E23-0944-B615-27D64A97F1F0}"/>
-    <hyperlink ref="G3" r:id="rId73" xr:uid="{DD355DF9-4BEB-7448-918E-22BF50CFE2D4}"/>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{72AE369D-E198-1943-AD18-2DE5C9F5DC85}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{875F0A20-252A-1A40-BC83-C5CF710CA537}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{B2666AFE-2727-0944-8F79-31F9F1B8BC34}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{49F9D581-07D0-9046-9B69-65C683927D5B}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{3AEF31A7-57C6-D94B-8B07-7E2DB39BC5F9}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{9381A599-64AE-8349-A976-466280E97D5D}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{805E1A00-8887-C148-A142-99A0640C293B}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{4DAD74E6-FAAE-5644-BC20-EB4B8BF34276}"/>
+    <hyperlink ref="D12" r:id="rId9" xr:uid="{C863EFCC-AC8F-7C41-A3E4-B49D5676D348}"/>
+    <hyperlink ref="D13" r:id="rId10" xr:uid="{883DA026-6975-8F4B-BDE8-57DC185D8573}"/>
+    <hyperlink ref="D15" r:id="rId11" xr:uid="{0CC94E92-F0EA-BF42-B7D5-A84AB0D89C3F}"/>
+    <hyperlink ref="D16" r:id="rId12" xr:uid="{4311FE02-C34E-2F40-9DF9-E272AD4B7F7F}"/>
+    <hyperlink ref="D17" r:id="rId13" xr:uid="{C1579CFB-8BB5-E645-A2AC-4237FB6BF47A}"/>
+    <hyperlink ref="D18" r:id="rId14" xr:uid="{CAB29C13-42FF-874D-9350-4D90D6E5795D}"/>
+    <hyperlink ref="D19" r:id="rId15" xr:uid="{AAD94CEC-DEB4-9B42-95B3-DE9669D619AE}"/>
+    <hyperlink ref="D21" r:id="rId16" xr:uid="{2041D576-5DA8-7848-A411-5F5580A5C3D8}"/>
+    <hyperlink ref="D22" r:id="rId17" xr:uid="{9123176F-8FC8-7B46-9625-296B13E5255E}"/>
+    <hyperlink ref="D23" r:id="rId18" xr:uid="{A2CD7702-3E0F-FB41-9C85-981AA91D2E26}"/>
+    <hyperlink ref="D24" r:id="rId19" xr:uid="{777C3EE8-1B3C-DD45-8720-B03AFAD95081}"/>
+    <hyperlink ref="D25" r:id="rId20" xr:uid="{D620C784-C558-084F-B75D-AD63F4B32C7A}"/>
+    <hyperlink ref="D28" r:id="rId21" xr:uid="{BF116976-60A9-9341-9A1E-C9C1EE729C67}"/>
+    <hyperlink ref="D30" r:id="rId22" xr:uid="{87FEB846-7095-C245-BA7C-AB3F3ECBC698}"/>
+    <hyperlink ref="D31" r:id="rId23" xr:uid="{601454A1-F662-A94B-9B87-944C41563CCC}"/>
+    <hyperlink ref="D32" r:id="rId24" xr:uid="{58700FDA-FA30-DB42-B1B4-6381AB5A9381}"/>
+    <hyperlink ref="D35" r:id="rId25" xr:uid="{7C7D21C3-029A-5542-8B19-9F9090D2721E}"/>
+    <hyperlink ref="D36" r:id="rId26" xr:uid="{0ECF212A-AAF7-9742-8791-E7FB69EDBC73}"/>
+    <hyperlink ref="D37" r:id="rId27" xr:uid="{A8D9D31C-AEBC-0D40-90F3-63F756B224A4}"/>
+    <hyperlink ref="D40" r:id="rId28" xr:uid="{E541C83D-752A-A74C-933D-413878A993B0}"/>
+    <hyperlink ref="D41" r:id="rId29" xr:uid="{84CC0AE2-9E4C-4A48-AE39-074E8B8012EA}"/>
+    <hyperlink ref="D42" r:id="rId30" xr:uid="{3C996A38-E410-0248-A00B-B8436166D5FD}"/>
+    <hyperlink ref="D43" r:id="rId31" location="tcNA00A0" display="http://www.fao.org/fishery/culturedspecies/Chanos_chanos/en - tcNA00A0" xr:uid="{3C4EF2E2-E0C2-B448-9004-AA1AB7B9B91A}"/>
+    <hyperlink ref="D44" r:id="rId32" xr:uid="{4960C6F3-FB1C-4146-90CD-2EA7905C0F21}"/>
+    <hyperlink ref="D45" r:id="rId33" xr:uid="{BBC213C4-E4B7-8E40-83D9-2B3FB8C60082}"/>
+    <hyperlink ref="D46" r:id="rId34" xr:uid="{60B2B5D5-8CE7-7248-99C8-D4A99824C997}"/>
+    <hyperlink ref="D47" r:id="rId35" location="tcN8008C" display="http://www.fao.org/fishery/culturedspecies/Oreochromis_niloticus/en - tcN8008C" xr:uid="{96920DA7-F6F9-E248-B150-C521925D595E}"/>
+    <hyperlink ref="D49" r:id="rId36" xr:uid="{488D18A3-C5F3-3649-AF3D-A5C30048A371}"/>
+    <hyperlink ref="D50" r:id="rId37" xr:uid="{EF1FA74F-888B-454C-A9D1-9036807F436E}"/>
+    <hyperlink ref="D51" r:id="rId38" xr:uid="{D033EE41-288C-6540-826C-2FF75D420779}"/>
+    <hyperlink ref="D52" r:id="rId39" xr:uid="{367362EC-E966-D84B-B10D-D549EB21DA18}"/>
+    <hyperlink ref="D53" r:id="rId40" xr:uid="{7337563C-FFC3-CF43-BB0F-080E97531D5E}"/>
+    <hyperlink ref="D54" r:id="rId41" xr:uid="{DFA12BB0-0D6C-2141-A307-39BB4DCE26C7}"/>
+    <hyperlink ref="D55" r:id="rId42" xr:uid="{206DEA2F-BD75-5343-90C2-793A73EC96D1}"/>
+    <hyperlink ref="D56" r:id="rId43" xr:uid="{2614649B-BA3F-704F-9289-8466221F2EA5}"/>
+    <hyperlink ref="D57" r:id="rId44" xr:uid="{531C407D-EDD2-DF4D-8948-663AA0C7F8D2}"/>
+    <hyperlink ref="D58" r:id="rId45" xr:uid="{1838FAA1-B3B1-8C43-A82D-FFC8956C4B84}"/>
+    <hyperlink ref="D59" r:id="rId46" xr:uid="{A2BDC684-D318-C849-B601-28CA980DE2C3}"/>
+    <hyperlink ref="D60" r:id="rId47" xr:uid="{29B93442-9CA6-E246-8820-2219875B0D72}"/>
+    <hyperlink ref="D61" r:id="rId48" xr:uid="{F6F2A4E7-E263-5A48-A672-4A282BC34E51}"/>
+    <hyperlink ref="D62" r:id="rId49" xr:uid="{271B665D-87BF-1D45-A341-E8FD3722E7D7}"/>
+    <hyperlink ref="D63" r:id="rId50" xr:uid="{7F9BABF1-B84D-2D4F-AEAA-EA33507CD7A1}"/>
+    <hyperlink ref="D64" r:id="rId51" xr:uid="{508B37AF-A381-A546-8BEF-3B4BD5A26C91}"/>
+    <hyperlink ref="D65" r:id="rId52" xr:uid="{38CEA48D-1005-FC4B-B485-E981152AF8A0}"/>
+    <hyperlink ref="D66" r:id="rId53" xr:uid="{932795F5-3BFF-8C40-9377-90C7AE494920}"/>
+    <hyperlink ref="D67" r:id="rId54" xr:uid="{E3D29BEB-9BC9-3A41-9148-509826AD6D28}"/>
+    <hyperlink ref="D68" r:id="rId55" xr:uid="{628DE432-6551-374E-867F-8DA36027D01A}"/>
+    <hyperlink ref="D69" r:id="rId56" xr:uid="{3A1C5098-10A3-244E-AE75-E45DA53FACD4}"/>
+    <hyperlink ref="D70" r:id="rId57" xr:uid="{99BD9C78-1E3D-3E45-A575-34A3DC5F824D}"/>
+    <hyperlink ref="D71" r:id="rId58" xr:uid="{8E59F3AB-C7CD-9143-8361-2F086D6CF87C}"/>
+    <hyperlink ref="D72" r:id="rId59" xr:uid="{7001DEB9-22DD-2447-9538-3D1516129106}"/>
+    <hyperlink ref="D73" r:id="rId60" xr:uid="{F9CB234F-E461-F846-B586-6F30E2FA61DE}"/>
+    <hyperlink ref="D11" r:id="rId61" xr:uid="{13AE02E0-7292-8642-BD3D-BE4D5296B122}"/>
+    <hyperlink ref="D14" r:id="rId62" xr:uid="{A2733D52-CFB9-334A-AEAA-1DD9F12A1D30}"/>
+    <hyperlink ref="D27" r:id="rId63" xr:uid="{4C608416-7D09-EA46-AE0A-4A55BBB5D786}"/>
+    <hyperlink ref="D26" r:id="rId64" xr:uid="{9123A1D3-54FA-8848-A031-BB37AF7DE9AC}"/>
+    <hyperlink ref="D20" r:id="rId65" xr:uid="{D8EEEBCA-6AD0-C14B-B3F2-309794617C9C}"/>
+    <hyperlink ref="D29" r:id="rId66" xr:uid="{BED6A0DC-B191-294B-BCC8-DDEB91D34922}"/>
+    <hyperlink ref="D33" r:id="rId67" xr:uid="{CCFB9E11-D25E-B645-9BC9-987815E1555D}"/>
+    <hyperlink ref="D34" r:id="rId68" xr:uid="{31DD904A-50EB-7847-ADC9-763F25F7FF71}"/>
+    <hyperlink ref="D38" r:id="rId69" xr:uid="{C306DAC6-7459-FA4C-A682-07111A550070}"/>
+    <hyperlink ref="D39" r:id="rId70" xr:uid="{420DA5CC-1CEB-2349-9EE7-E49824EEE7D9}"/>
+    <hyperlink ref="D48" r:id="rId71" xr:uid="{A1291532-B3EF-C549-B7E1-D06188C68D36}"/>
+    <hyperlink ref="D2" r:id="rId72" xr:uid="{804CA2A9-6E23-0944-B615-27D64A97F1F0}"/>
+    <hyperlink ref="H3" r:id="rId73" xr:uid="{DD355DF9-4BEB-7448-918E-22BF50CFE2D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
